--- a/ig/sd-add-associatedPartyR5/all-profiles.xlsx
+++ b/ig/sd-add-associatedPartyR5/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T15:35:25+00:00</t>
+    <t>2024-02-12T18:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/all-profiles.xlsx
+++ b/ig/sd-add-associatedPartyR5/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T18:00:18+00:00</t>
+    <t>2024-02-15T16:51:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/all-profiles.xlsx
+++ b/ig/sd-add-associatedPartyR5/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:51:45+00:00</t>
+    <t>2024-02-15T16:54:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/all-profiles.xlsx
+++ b/ig/sd-add-associatedPartyR5/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:13:22+00:00</t>
+    <t>2024-02-16T15:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -437,7 +437,7 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE, afin de permettre l'ajout des Sponsors, collaborateurs et autres parties concernés par l'essai. Cette extension implemente l’élément associatedParty de R5 http://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.associatedParty</t>
   </si>
   <si>
-    <t>Nom du partie prenante / Name of associated party</t>
+    <t>Nom de la partie prenante / Name of associated party</t>
   </si>
   <si>
     <t>Extension.extension:role</t>
@@ -526,7 +526,7 @@
     <t>party</t>
   </si>
   <si>
-    <t>Structured outcome definition / Individual or organization associated with study (use practitionerRole to specify their organisation)</t>
+    <t>Structure de la partie prenante / Structured outcome definition Individual or organization associated with study (use practitionerRole to specify their organisation)</t>
   </si>
   <si>
     <t>Extension.extension:party.id</t>
